--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5304878048780488</v>
+        <v>0.4939024390243902</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07872791857226127</v>
+        <v>0.08957314726739474</v>
       </c>
       <c r="J2" t="n">
-        <v>1032.404881213713</v>
+        <v>1212.897288754961</v>
       </c>
       <c r="K2" t="n">
-        <v>1456077.902404455</v>
+        <v>2146572.184447245</v>
       </c>
       <c r="L2" t="n">
-        <v>1206.680530382609</v>
+        <v>1465.118488193786</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7253242238555287</v>
+        <v>0.5950687941630448</v>
       </c>
     </row>
   </sheetData>
